--- a/biology/Zoologie/Aulohalaelurus_labiosus/Aulohalaelurus_labiosus.xlsx
+++ b/biology/Zoologie/Aulohalaelurus_labiosus/Aulohalaelurus_labiosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chien à taches noires
-Aulohalaelurus labiosus, communément appelé le Chien à taches noires[3],[4], est une espèce de requins de la famille des Scyliorhinidae.
+Aulohalaelurus labiosus, communément appelé le Chien à taches noires est une espèce de requins de la famille des Scyliorhinidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aulohalaelurus labiosus a été initialement décrite en 1905 par Edgar Ravenswood Waite sous le protonyme de Catulus labiosus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aulohalaelurus labiosus a été initialement décrite en 1905 par Edgar Ravenswood Waite sous le protonyme de Catulus labiosus.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle peut mesurer jusqu'à 67 cm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle peut mesurer jusqu'à 67 cm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'ouest de l'Australie[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'ouest de l'Australie.
 </t>
         </is>
       </c>
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
